--- a/apexsoft-code-generator/src/test/resources/com/qqc/apexsoft/codegenerator/dataImport/generateCode.xlsx
+++ b/apexsoft-code-generator/src/test/resources/com/qqc/apexsoft/codegenerator/dataImport/generateCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\01_微服务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA043E2-1AEC-4502-AEE8-FC02694B5863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C90EDDD-1C54-4A7C-A954-63EDC2307479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入参" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>参数名</t>
   </si>
@@ -69,100 +69,55 @@
     <t>基金公司</t>
   </si>
   <si>
-    <t>席位名称</t>
-  </si>
-  <si>
     <t>股票交易总金额(亿元)</t>
   </si>
   <si>
-    <t>股票席位占比(%)</t>
-  </si>
-  <si>
     <t>债券交易总金额(亿元)</t>
   </si>
   <si>
-    <t>债券席位占比(%)</t>
-  </si>
-  <si>
     <t>回购交易总金额(亿元)</t>
   </si>
   <si>
-    <t>回购席位占比(%)</t>
-  </si>
-  <si>
     <t>总佣金(万元)</t>
   </si>
   <si>
     <t>同比增长率(%)</t>
   </si>
   <si>
-    <t>佣金席位占比(%)</t>
-  </si>
-  <si>
     <t>JJGS</t>
   </si>
   <si>
-    <t>XWMC</t>
-  </si>
-  <si>
     <t>GPJYZJE</t>
   </si>
   <si>
-    <t>GPXWZB</t>
-  </si>
-  <si>
     <t>ZQJYZJE</t>
   </si>
   <si>
-    <t>ZQXWZB</t>
-  </si>
-  <si>
     <t>HGJYZJE</t>
   </si>
   <si>
-    <t>HGXWZB</t>
-  </si>
-  <si>
     <t>ZYJ</t>
   </si>
   <si>
     <t>TBZZL</t>
   </si>
   <si>
-    <t>YJXWZB</t>
-  </si>
-  <si>
     <t>fundCompany</t>
   </si>
   <si>
-    <t>seatName</t>
-  </si>
-  <si>
     <t>totalAmountOfStockTransactions</t>
   </si>
   <si>
-    <t>proportionOfStockSeats</t>
-  </si>
-  <si>
     <t>totalAmountOfBondTransactions</t>
   </si>
   <si>
-    <t>proportionOfBondSeats</t>
-  </si>
-  <si>
     <t>totalAmountOfRepurchaseTransactions</t>
   </si>
   <si>
-    <t>proportionOfRepurchasedSeats</t>
-  </si>
-  <si>
     <t>totalCommission</t>
   </si>
   <si>
     <t>yearOnYearGrowthRate</t>
-  </si>
-  <si>
-    <t>proportionOfCommissionSeats</t>
   </si>
   <si>
     <t>年份</t>
@@ -736,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>9</v>
@@ -747,30 +702,30 @@
     </row>
     <row r="3" spans="1:4" ht="14.65">
       <c r="A3" s="12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.65">
       <c r="A4" s="12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.65">
@@ -782,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.65">
@@ -802,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -827,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>9</v>
@@ -841,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
@@ -852,14 +807,14 @@
     </row>
     <row r="4" spans="1:4" ht="14.65">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.65">
@@ -955,10 +910,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -982,13 +937,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.65">
@@ -996,13 +951,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.65">
@@ -1010,13 +965,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.65">
@@ -1024,13 +979,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.65">
@@ -1038,13 +993,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.65">
@@ -1052,83 +1007,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.65">
-      <c r="A8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.65">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.65">
-      <c r="A10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.65">
-      <c r="A11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.65">
-      <c r="A12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
